--- a/biology/Médecine/Octave_Doyen/Octave_Doyen.xlsx
+++ b/biology/Médecine/Octave_Doyen/Octave_Doyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Octave Doyen est un médecin français, né le 25 mai 1831 à Reims et mort le 10 juillet 1895 dans cette même ville dont il fut le maire de 1881 à 1884.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Octave Doyen est né de Etienne Nicolas Doyen (1788-1835) et Marguerite Perseval (1795-1847). Après des études de médecine à Paris, il est docteur en médecine depuis 1858, professeur à l'École de médecine, médecin de l'hôtel-Dieu de Reims de 1860 à 1895.
 Entré au conseil municipal en 1868, il est maire de Reims de 1881 à 1884, poste qu'il quitte pour raison de santé. Il fonda avec son épouse Amélie Doublié (1836-1878), l'École professionnelle et ménagère de jeunes filles en 1873. Il était aussi cofondateur de l'Ancienne, société de gymnastique de la  ville, membre titulaire de l'Académie de Reims.
@@ -545,7 +559,9 @@
           <t>Écrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur l'expectation, thèse pour le doctorat en médecine... soutenue le 22 mai 1858, par Octave Doyen, né à Reims..., Paris : Rignoux, 1858.</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1882)[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1882)</t>
         </is>
       </c>
     </row>
